--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D9333D-2F3A-488E-8AF8-F1EF1A3E5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7FF9C1-96ED-48D7-B9F1-CED1AE6B13FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="2910" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>TAG</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>瓦沙格</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>大雪山雪怪</t>
   </si>
   <si>
-    <t>Zagros Yeti</t>
-  </si>
-  <si>
     <t>青石村延崎</t>
   </si>
   <si>
@@ -405,64 +399,67 @@
     <t>路人</t>
   </si>
   <si>
-    <t>Borracho del desierto</t>
-  </si>
-  <si>
-    <t>Morador del desierto</t>
-  </si>
-  <si>
-    <t>Regalador</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>La hermana de Aslan</t>
-  </si>
-  <si>
-    <t>Aprendiz de la extraña hoja</t>
-  </si>
-  <si>
-    <t>Mover personaje de prueba</t>
-  </si>
-  <si>
-    <t>El Cairo</t>
-  </si>
-  <si>
-    <t>Abuelo</t>
-  </si>
-  <si>
     <t>Bandido</t>
   </si>
   <si>
-    <t>Árbol de flores extraño</t>
-  </si>
-  <si>
     <t>Yeti Gigante</t>
   </si>
   <si>
-    <t>Garza de nieve</t>
-  </si>
-  <si>
-    <t>Nasir Espadachín</t>
-  </si>
-  <si>
-    <t>Lobo de montaña</t>
-  </si>
-  <si>
-    <t>Capitán Grunt</t>
-  </si>
-  <si>
-    <t>Grunt A. Traducción:</t>
-  </si>
-  <si>
-    <t>Grunt B. Traducción:</t>
-  </si>
-  <si>
-    <t>Mujer llorando</t>
-  </si>
-  <si>
-    <t>Transeúnte</t>
+    <t>Bêbado do Deserto</t>
+  </si>
+  <si>
+    <t>Morador do Deserto</t>
+  </si>
+  <si>
+    <t>Doador</t>
+  </si>
+  <si>
+    <t>Ferreiro</t>
+  </si>
+  <si>
+    <t>Irmã de Aslan</t>
+  </si>
+  <si>
+    <t>Aprendiz de Lâmina Estranha</t>
+  </si>
+  <si>
+    <t>Personagem de Teste de Movimento</t>
+  </si>
+  <si>
+    <t>Yeti de Zagros</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Vovô</t>
+  </si>
+  <si>
+    <t>Árvore Flor Estranha</t>
+  </si>
+  <si>
+    <t>Garça da Neve</t>
+  </si>
+  <si>
+    <t>Espadachim Nasir</t>
+  </si>
+  <si>
+    <t>Lobo das Montanhas</t>
+  </si>
+  <si>
+    <t>Capitão dos Soldados Rasos</t>
+  </si>
+  <si>
+    <t>Soldado Raso A</t>
+  </si>
+  <si>
+    <t>Soldado Raso B</t>
+  </si>
+  <si>
+    <t>Mulher Chorando</t>
+  </si>
+  <si>
+    <t>Pessoa Passando</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,12 +845,12 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="G2" sqref="A1:G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="60">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,924 +875,710 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
+      <c r="D4" s="4"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
+      <c r="D5" s="4"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="4"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="4"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="4"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30">
+      <c r="D14" s="4"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="4"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="4"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45">
+      <c r="D17" s="4"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="4"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D22" s="4"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" s="4"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30">
+      <c r="D24" s="4"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="4"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="3" t="s">
+      <c r="C27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="D27" s="4"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="3" t="s">
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="D28" s="4"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="3" t="s">
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C29" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="3" t="s">
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="45">
-      <c r="A31" s="3" t="s">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="3" t="s">
+      <c r="C32" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="D32" s="4"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30">
+      <c r="D33" s="4"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30">
+      <c r="D34" s="4"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="3" t="s">
+      <c r="D37" s="4"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30">
-      <c r="A38" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45">
-      <c r="A39" s="3" t="s">
+      <c r="D39" s="4"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C39" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="3" t="s">
+      <c r="C40" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="D40" s="4"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C40" t="s">
+      <c r="B41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="3" t="s">
+      <c r="C41" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" s="4"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="3" t="s">
+      <c r="C42" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D42" s="4"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="45">
-      <c r="A50" s="3" t="s">
+      <c r="D50" s="4"/>
+      <c r="F50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="G50" t="s">
         <v>115</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="30">
-      <c r="A51" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="B51" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>141</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45">
-      <c r="A55" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D55" s="4"/>
+      <c r="F55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7FF9C1-96ED-48D7-B9F1-CED1AE6B13FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D9333D-2F3A-488E-8AF8-F1EF1A3E5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2910" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="144">
   <si>
     <t>人物ID_CharacterID</t>
   </si>
@@ -54,6 +54,9 @@
     <t>TAG</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>瓦沙格</t>
   </si>
   <si>
@@ -222,6 +225,9 @@
     <t>大雪山雪怪</t>
   </si>
   <si>
+    <t>Zagros Yeti</t>
+  </si>
+  <si>
     <t>青石村延崎</t>
   </si>
   <si>
@@ -399,67 +405,64 @@
     <t>路人</t>
   </si>
   <si>
+    <t>Borracho del desierto</t>
+  </si>
+  <si>
+    <t>Morador del desierto</t>
+  </si>
+  <si>
+    <t>Regalador</t>
+  </si>
+  <si>
+    <t>Herrero</t>
+  </si>
+  <si>
+    <t>La hermana de Aslan</t>
+  </si>
+  <si>
+    <t>Aprendiz de la extraña hoja</t>
+  </si>
+  <si>
+    <t>Mover personaje de prueba</t>
+  </si>
+  <si>
+    <t>El Cairo</t>
+  </si>
+  <si>
+    <t>Abuelo</t>
+  </si>
+  <si>
     <t>Bandido</t>
   </si>
   <si>
+    <t>Árbol de flores extraño</t>
+  </si>
+  <si>
     <t>Yeti Gigante</t>
   </si>
   <si>
-    <t>Bêbado do Deserto</t>
-  </si>
-  <si>
-    <t>Morador do Deserto</t>
-  </si>
-  <si>
-    <t>Doador</t>
-  </si>
-  <si>
-    <t>Ferreiro</t>
-  </si>
-  <si>
-    <t>Irmã de Aslan</t>
-  </si>
-  <si>
-    <t>Aprendiz de Lâmina Estranha</t>
-  </si>
-  <si>
-    <t>Personagem de Teste de Movimento</t>
-  </si>
-  <si>
-    <t>Yeti de Zagros</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>Vovô</t>
-  </si>
-  <si>
-    <t>Árvore Flor Estranha</t>
-  </si>
-  <si>
-    <t>Garça da Neve</t>
-  </si>
-  <si>
-    <t>Espadachim Nasir</t>
-  </si>
-  <si>
-    <t>Lobo das Montanhas</t>
-  </si>
-  <si>
-    <t>Capitão dos Soldados Rasos</t>
-  </si>
-  <si>
-    <t>Soldado Raso A</t>
-  </si>
-  <si>
-    <t>Soldado Raso B</t>
-  </si>
-  <si>
-    <t>Mulher Chorando</t>
-  </si>
-  <si>
-    <t>Pessoa Passando</t>
+    <t>Garza de nieve</t>
+  </si>
+  <si>
+    <t>Nasir Espadachín</t>
+  </si>
+  <si>
+    <t>Lobo de montaña</t>
+  </si>
+  <si>
+    <t>Capitán Grunt</t>
+  </si>
+  <si>
+    <t>Grunt A. Traducción:</t>
+  </si>
+  <si>
+    <t>Grunt B. Traducción:</t>
+  </si>
+  <si>
+    <t>Mujer llorando</t>
+  </si>
+  <si>
+    <t>Transeúnte</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -845,12 +848,12 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G55"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,710 +878,924 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="F2" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="F12" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="F19" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="F20" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="F21" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="F22" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="30">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
+        <v>135</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
       <c r="A36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
+        <v>136</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="45">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6">
+        <v>137</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
       <c r="A41" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
+        <v>98</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="F42" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="F43" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="F44" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="F45" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="F46" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="F47" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="F48" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F50" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="F51" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="F52" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:7">
+        <v>142</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="F55" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D9333D-2F3A-488E-8AF8-F1EF1A3E5029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2425450E-0C07-44E0-B6E6-D98A737DA63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="1440" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,6 @@
     <t>木石兰</t>
   </si>
   <si>
-    <t>Metehan</t>
-  </si>
-  <si>
     <t>大沙漠蒙离</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>阿奇</t>
   </si>
   <si>
-    <t>Aslan</t>
-  </si>
-  <si>
     <t>大沙漠阿奇姐姐</t>
   </si>
   <si>
@@ -189,9 +183,6 @@
     <t>阿默尔</t>
   </si>
   <si>
-    <t>Amar</t>
-  </si>
-  <si>
     <t>岚光</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t>淼淼</t>
   </si>
   <si>
-    <t>Marwa</t>
-  </si>
-  <si>
     <t>大雪山雪怪</t>
   </si>
   <si>
@@ -270,9 +258,6 @@
     <t>翠烟</t>
   </si>
   <si>
-    <t>Chaka</t>
-  </si>
-  <si>
     <t>大雪山花树</t>
   </si>
   <si>
@@ -336,9 +321,6 @@
     <t>兔犬</t>
   </si>
   <si>
-    <t>Arnab</t>
-  </si>
-  <si>
     <t>长睚</t>
   </si>
   <si>
@@ -348,18 +330,12 @@
     <t>谷沙</t>
   </si>
   <si>
-    <t>Jabbar</t>
-  </si>
-  <si>
     <t>山狼</t>
   </si>
   <si>
     <t>曼玡</t>
   </si>
   <si>
-    <t>Maram</t>
-  </si>
-  <si>
     <t>齐林</t>
   </si>
   <si>
@@ -375,9 +351,6 @@
     <t>洛尔</t>
   </si>
   <si>
-    <t>Latif</t>
-  </si>
-  <si>
     <t>阿涅</t>
   </si>
   <si>
@@ -405,64 +378,91 @@
     <t>路人</t>
   </si>
   <si>
-    <t>Borracho del desierto</t>
-  </si>
-  <si>
-    <t>Morador del desierto</t>
-  </si>
-  <si>
-    <t>Regalador</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>La hermana de Aslan</t>
-  </si>
-  <si>
-    <t>Aprendiz de la extraña hoja</t>
-  </si>
-  <si>
-    <t>Mover personaje de prueba</t>
-  </si>
-  <si>
-    <t>El Cairo</t>
-  </si>
-  <si>
-    <t>Abuelo</t>
-  </si>
-  <si>
     <t>Bandido</t>
   </si>
   <si>
-    <t>Árbol de flores extraño</t>
-  </si>
-  <si>
     <t>Yeti Gigante</t>
   </si>
   <si>
-    <t>Garza de nieve</t>
-  </si>
-  <si>
-    <t>Nasir Espadachín</t>
-  </si>
-  <si>
-    <t>Lobo de montaña</t>
-  </si>
-  <si>
-    <t>Capitán Grunt</t>
-  </si>
-  <si>
-    <t>Grunt A. Traducción:</t>
-  </si>
-  <si>
-    <t>Grunt B. Traducción:</t>
-  </si>
-  <si>
-    <t>Mujer llorando</t>
-  </si>
-  <si>
-    <t>Transeúnte</t>
+    <t>bêbado do deserto</t>
+  </si>
+  <si>
+    <t>morador do deserto</t>
+  </si>
+  <si>
+    <t>Metahan</t>
+  </si>
+  <si>
+    <t>Presenteador</t>
+  </si>
+  <si>
+    <t>ferreiro</t>
+  </si>
+  <si>
+    <t>Aslam</t>
+  </si>
+  <si>
+    <t>Irmã de Aslan</t>
+  </si>
+  <si>
+    <t>Aprendiz de Lâmina Estranha</t>
+  </si>
+  <si>
+    <t>Amor</t>
+  </si>
+  <si>
+    <t>Mover personagem de teste</t>
+  </si>
+  <si>
+    <t>marwa</t>
+  </si>
+  <si>
+    <t>O Cairo</t>
+  </si>
+  <si>
+    <t>Avô</t>
+  </si>
+  <si>
+    <t>chaka</t>
+  </si>
+  <si>
+    <t>árvore de flor estranha</t>
+  </si>
+  <si>
+    <t>garça-da-neve</t>
+  </si>
+  <si>
+    <t>Espadachim Nasir</t>
+  </si>
+  <si>
+    <t>Arnabe</t>
+  </si>
+  <si>
+    <t>Jabar</t>
+  </si>
+  <si>
+    <t>lobo da montanha</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>latif</t>
+  </si>
+  <si>
+    <t>Capitão Grunhido</t>
+  </si>
+  <si>
+    <t>Grunt A. Tradução:</t>
+  </si>
+  <si>
+    <t>Grunt B. Tradução:</t>
+  </si>
+  <si>
+    <t>Mulher chorando</t>
+  </si>
+  <si>
+    <t>Transeunte</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,10 +848,13 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="C2" sqref="C2:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60">
       <c r="A1" s="1" t="s">
@@ -918,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -935,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -1037,7 +1040,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
@@ -1048,13 +1051,13 @@
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
@@ -1065,13 +1068,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>7</v>
@@ -1082,13 +1085,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
@@ -1099,13 +1102,13 @@
     </row>
     <row r="15" spans="1:7" ht="30">
       <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>7</v>
@@ -1116,13 +1119,13 @@
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
@@ -1133,13 +1136,13 @@
     </row>
     <row r="17" spans="1:6" ht="45">
       <c r="A17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>7</v>
@@ -1150,13 +1153,13 @@
     </row>
     <row r="18" spans="1:6" ht="45">
       <c r="A18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
@@ -1167,13 +1170,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
@@ -1184,13 +1187,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>7</v>
@@ -1201,13 +1204,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>7</v>
@@ -1218,13 +1221,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>7</v>
@@ -1235,13 +1238,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>7</v>
@@ -1252,13 +1255,13 @@
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
@@ -1269,13 +1272,13 @@
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>7</v>
@@ -1286,13 +1289,13 @@
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>7</v>
@@ -1303,13 +1306,13 @@
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>7</v>
@@ -1320,13 +1323,13 @@
     </row>
     <row r="28" spans="1:6" ht="30">
       <c r="A28" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>7</v>
@@ -1337,13 +1340,13 @@
     </row>
     <row r="29" spans="1:6" ht="30">
       <c r="A29" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
@@ -1354,13 +1357,13 @@
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>7</v>
@@ -1371,13 +1374,13 @@
     </row>
     <row r="31" spans="1:6" ht="45">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>7</v>
@@ -1388,13 +1391,13 @@
     </row>
     <row r="32" spans="1:6" ht="30">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>7</v>
@@ -1405,13 +1408,13 @@
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>7</v>
@@ -1422,13 +1425,13 @@
     </row>
     <row r="34" spans="1:6" ht="30">
       <c r="A34" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
@@ -1439,13 +1442,13 @@
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>7</v>
@@ -1456,13 +1459,13 @@
     </row>
     <row r="36" spans="1:6" ht="30">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>7</v>
@@ -1473,13 +1476,13 @@
     </row>
     <row r="37" spans="1:6" ht="30">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>7</v>
@@ -1490,13 +1493,13 @@
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>7</v>
@@ -1507,13 +1510,13 @@
     </row>
     <row r="39" spans="1:6" ht="45">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>7</v>
@@ -1524,13 +1527,13 @@
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>7</v>
@@ -1541,13 +1544,13 @@
     </row>
     <row r="41" spans="1:6" ht="30">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>7</v>
@@ -1558,13 +1561,13 @@
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>7</v>
@@ -1575,13 +1578,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>7</v>
@@ -1592,13 +1595,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>7</v>
@@ -1609,13 +1612,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>7</v>
@@ -1626,13 +1629,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>7</v>
@@ -1643,13 +1646,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>7</v>
@@ -1660,13 +1663,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>7</v>
@@ -1677,13 +1680,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>7</v>
@@ -1694,30 +1697,30 @@
     </row>
     <row r="50" spans="1:7" ht="45">
       <c r="A50" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
         <v>139</v>
@@ -1731,10 +1734,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
         <v>140</v>
@@ -1748,10 +1751,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
         <v>141</v>
@@ -1765,10 +1768,10 @@
     </row>
     <row r="54" spans="1:7" ht="30">
       <c r="A54" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
         <v>142</v>
@@ -1782,10 +1785,10 @@
     </row>
     <row r="55" spans="1:7" ht="45">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
         <v>143</v>

--- a/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R人物列表_Roles_19k_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5C15E-510F-40DA-87F8-A0CFA05FC6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F560EEE-74D7-4E20-925F-8767F9781C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1170" windowWidth="18090" windowHeight="8790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -391,22 +391,28 @@
     <t>路人</t>
   </si>
   <si>
+    <t>Transeunte</t>
+  </si>
+  <si>
+    <t>Mulher Chorando</t>
+  </si>
+  <si>
     <t>Bêbado do Deserto</t>
   </si>
   <si>
     <t>Morador do Deserto</t>
   </si>
   <si>
-    <t>Ferreiro</t>
-  </si>
-  <si>
-    <t>Doador</t>
-  </si>
-  <si>
-    <t>Irmã do Aslan</t>
-  </si>
-  <si>
-    <t>Aprendiz da Lâmina Estranha</t>
+    <t>Pessoa dos Presentes</t>
+  </si>
+  <si>
+    <t>Pessoa das Ferramentas</t>
+  </si>
+  <si>
+    <t>Irmã de Aslan</t>
+  </si>
+  <si>
+    <t>Aprendiz da Lâmina de Vento</t>
   </si>
   <si>
     <t>Personagem de Teste de Movimento</t>
@@ -421,34 +427,28 @@
     <t>Bandido</t>
   </si>
   <si>
-    <t>Estranha Árvore Florida</t>
+    <t>Árvore Estranha em Flor</t>
   </si>
   <si>
     <t>Yeti Gigante</t>
   </si>
   <si>
-    <t>Garça da Neve</t>
-  </si>
-  <si>
-    <t>Espadachim Nasir</t>
+    <t>Garça-das-Neves</t>
+  </si>
+  <si>
+    <t>Espadachim de Nasir</t>
   </si>
   <si>
     <t>Lobo da Montanha</t>
   </si>
   <si>
-    <t>Capitão dos Soldados Rasos</t>
-  </si>
-  <si>
-    <t>Soldado Raso A</t>
-  </si>
-  <si>
-    <t>Soldado Raso B</t>
-  </si>
-  <si>
-    <t>Mulher Chorando</t>
-  </si>
-  <si>
-    <t>Transeunte</t>
+    <t>Capitão Grunhido</t>
+  </si>
+  <si>
+    <t>Grunhido B</t>
+  </si>
+  <si>
+    <t>Grunhido A</t>
   </si>
 </sst>
 </file>
@@ -949,18 +949,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45">
@@ -1020,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="3"/>
@@ -1033,7 +1029,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="3"/>
@@ -1137,7 +1133,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="3"/>
@@ -1150,7 +1146,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D14" s="2"/>
       <c r="F14" s="3"/>
@@ -1189,7 +1185,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="3"/>
@@ -1202,7 +1198,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="3"/>
@@ -1280,7 +1276,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="F24" s="3"/>
@@ -1306,7 +1302,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="3"/>
@@ -1358,7 +1354,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="3"/>
@@ -1371,7 +1367,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="3"/>
@@ -1397,7 +1393,7 @@
         <v>80</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="3"/>
@@ -1410,7 +1406,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="3"/>
@@ -1423,7 +1419,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D35" s="2"/>
       <c r="F35" s="3"/>
@@ -1449,7 +1445,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="3"/>
@@ -1475,7 +1471,7 @@
         <v>91</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39" s="3"/>
@@ -1553,7 +1549,7 @@
         <v>105</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="2"/>
       <c r="F45" s="3"/>
@@ -1636,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2"/>
       <c r="F51" s="3"/>
@@ -1649,7 +1645,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="3"/>
@@ -1662,7 +1658,7 @@
         <v>119</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2"/>
       <c r="F53" s="3"/>
@@ -1675,7 +1671,7 @@
         <v>120</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2"/>
       <c r="F54" s="3"/>
@@ -1688,13 +1684,12 @@
         <v>122</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D55" s="2"/>
       <c r="F55" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>